--- a/biology/Médecine/Hôpital_métropolitain_Matsuzawa_de_Tokyo/Hôpital_métropolitain_Matsuzawa_de_Tokyo.xlsx
+++ b/biology/Médecine/Hôpital_métropolitain_Matsuzawa_de_Tokyo/Hôpital_métropolitain_Matsuzawa_de_Tokyo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_m%C3%A9tropolitain_Matsuzawa_de_Tokyo</t>
+          <t>Hôpital_métropolitain_Matsuzawa_de_Tokyo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'hôpital métropolitain Matsuzawa de Tokyo est un hôpital psychiatrique public de 1 005 lits situé dans l'arrondissement de Setagaya à Tokyo au Japon. Fondé en 1879, c'est le plus ancien et le plus grand établissement psychiatrique du Japon. C'est la meilleure autorité japonaise dans le domaine de la psychiatrie.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_m%C3%A9tropolitain_Matsuzawa_de_Tokyo</t>
+          <t>Hôpital_métropolitain_Matsuzawa_de_Tokyo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Personnalités internées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Issei Sagawa, cannibale, dans les années 1980
 Shūmei Ōkawa, écrivain, dans les années 1940</t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_m%C3%A9tropolitain_Matsuzawa_de_Tokyo</t>
+          <t>Hôpital_métropolitain_Matsuzawa_de_Tokyo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(ja) Site web du Tokyo Metropolitan Matsuzawa Hospital</t>
         </is>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_m%C3%A9tropolitain_Matsuzawa_de_Tokyo</t>
+          <t>Hôpital_métropolitain_Matsuzawa_de_Tokyo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Source de la traduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Tokyo Metropolitan Matsuzawa Hospital » (voir la liste des auteurs).
  Portail de Tokyo   Portail de la médecine   Portail de la psychologie   Portail des soins infirmiers   Portail du bâtiment et des travaux publics   Portail de la folie                </t>
